--- a/data/trans_orig/IP25-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C61BF7-FED6-45B3-B72D-BB6B318F66A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{163D994C-C78B-4A4C-ADA3-4FE06A7A49BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6C010F97-F05C-4DB4-A99E-C6F7026ADF3D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D97DEF9A-D94B-4547-9718-60F14716176C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="395">
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -68,13 +68,208 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>994.0</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -86,138 +281,129 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
@@ -227,187 +413,58 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -419,181 +476,289 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -602,168 +767,6 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
     <t>8,75%</t>
   </si>
   <si>
@@ -809,285 +812,285 @@
     <t>Menores según si ven la televisión todos o casi todos los días en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
     <t>8,68%</t>
   </si>
   <si>
@@ -1145,6 +1148,36 @@
     <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>99,44%</t>
   </si>
   <si>
@@ -1154,25 +1187,25 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>99,2%</t>
@@ -1181,46 +1214,16 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
     <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125A78EE-7101-4C75-A74C-FAD2D3EECA39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2ED6D8-3DCE-4C35-8D47-7D92409DE305}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1726,152 +1729,152 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3196</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3910</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>28050</v>
+        <v>22248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>22670</v>
+        <v>22010</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="N5" s="7">
-        <v>50720</v>
+        <v>44258</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>184092</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>172493</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>356585</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>34</v>
@@ -1883,10 +1886,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>35</v>
@@ -1898,10 +1901,10 @@
         <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1913,10 +1916,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
@@ -1932,152 +1935,152 @@
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5">
-        <v>994</v>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>13457</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>11782</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="7">
         <v>38</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>25238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="D9" s="7">
-        <v>13457</v>
+        <v>114176</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I9" s="7">
-        <v>11782</v>
+        <v>103487</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
-        <v>38</v>
+        <v>328</v>
       </c>
       <c r="N9" s="7">
-        <v>25238</v>
+        <v>217664</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>114176</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>103487</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>217664</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>57</v>
@@ -2138,152 +2141,152 @@
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5">
-        <v>994</v>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>28050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>22670</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>50720</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="D13" s="7">
-        <v>27825</v>
+        <v>184092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="I13" s="7">
-        <v>15149</v>
+        <v>172493</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>556</v>
       </c>
       <c r="N13" s="7">
-        <v>42974</v>
+        <v>356585</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>179999</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>193455</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>373454</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>79</v>
@@ -2295,10 +2298,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D15" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>35</v>
@@ -2310,10 +2313,10 @@
         <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="I15" s="7">
-        <v>208604</v>
+        <v>195163</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>35</v>
@@ -2325,10 +2328,10 @@
         <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>579</v>
+        <v>634</v>
       </c>
       <c r="N15" s="7">
-        <v>416428</v>
+        <v>407305</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>35</v>
@@ -2344,155 +2347,155 @@
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>17544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>15511</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>33055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D17" s="7">
-        <v>3196</v>
+        <v>132113</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I17" s="7">
-        <v>714</v>
+        <v>122306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>407</v>
       </c>
       <c r="N17" s="7">
-        <v>3910</v>
+        <v>254419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>22248</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>22010</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>44258</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,10 +2504,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D19" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>35</v>
@@ -2516,10 +2519,10 @@
         <v>35</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I19" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>35</v>
@@ -2531,10 +2534,10 @@
         <v>35</v>
       </c>
       <c r="M19" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N19" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>35</v>
@@ -2548,157 +2551,157 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="5">
-        <v>994</v>
+        <v>102</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>27825</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>15149</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>42974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c r="D21" s="7">
-        <v>17544</v>
+        <v>179999</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="I21" s="7">
-        <v>15511</v>
+        <v>193455</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M21" s="7">
-        <v>54</v>
+        <v>518</v>
       </c>
       <c r="N21" s="7">
-        <v>33055</v>
+        <v>373454</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>132113</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>122306</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>254419</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,10 +2710,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D23" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>35</v>
@@ -2722,10 +2725,10 @@
         <v>35</v>
       </c>
       <c r="H23" s="7">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="I23" s="7">
-        <v>137817</v>
+        <v>208604</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>35</v>
@@ -2737,10 +2740,10 @@
         <v>35</v>
       </c>
       <c r="M23" s="7">
-        <v>461</v>
+        <v>579</v>
       </c>
       <c r="N23" s="7">
-        <v>287474</v>
+        <v>416428</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>35</v>
@@ -2756,155 +2759,155 @@
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>90071</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>65827</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>155898</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
+        <v>951</v>
+      </c>
+      <c r="D25" s="7">
+        <v>632629</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="7">
-        <v>90071</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="H25" s="7">
-        <v>101</v>
+        <v>915</v>
       </c>
       <c r="I25" s="7">
-        <v>65827</v>
+        <v>613750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
-        <v>236</v>
+        <v>1866</v>
       </c>
       <c r="N25" s="7">
-        <v>155898</v>
+        <v>1246379</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>951</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>632629</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>613750</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
-        <v>1866</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>1246379</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C9D029-EFD2-4E6C-A7EE-98B67D97C9D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC32933-1C86-4E0D-9F66-55438AF7E7D8}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +2996,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3090,155 +3093,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1449</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2299</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>21203</v>
+        <v>24006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>19423</v>
+        <v>21523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>40626</v>
+        <v>45529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>201338</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H6" s="7">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>186935</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>388273</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,10 +3250,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>322</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>222541</v>
+        <v>25455</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>35</v>
@@ -3262,10 +3265,10 @@
         <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -3277,10 +3280,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>641</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>428899</v>
+        <v>47828</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
@@ -3296,155 +3299,155 @@
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5">
-        <v>994</v>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>11485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>9193</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>20678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>11485</v>
+        <v>117744</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H9" s="7">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="I9" s="7">
-        <v>9193</v>
+        <v>106850</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
-        <v>29</v>
+        <v>316</v>
       </c>
       <c r="N9" s="7">
-        <v>20678</v>
+        <v>224594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>117744</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>106850</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>224594</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,155 +3505,155 @@
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5">
-        <v>994</v>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>21203</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>19423</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" s="7">
         <v>60</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>40626</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="D13" s="7">
-        <v>15776</v>
+        <v>201338</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="I13" s="7">
-        <v>24054</v>
+        <v>186935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
-        <v>55</v>
+        <v>581</v>
       </c>
       <c r="N13" s="7">
-        <v>39830</v>
+        <v>388273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>191873</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>186246</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>378119</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,10 +3662,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="D15" s="7">
-        <v>207649</v>
+        <v>222541</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>35</v>
@@ -3674,10 +3677,10 @@
         <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="I15" s="7">
-        <v>210300</v>
+        <v>206358</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>35</v>
@@ -3689,10 +3692,10 @@
         <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="N15" s="7">
-        <v>417949</v>
+        <v>428899</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>35</v>
@@ -3708,155 +3711,155 @@
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>15717</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>24048</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>39765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="D17" s="7">
-        <v>1449</v>
+        <v>149890</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="I17" s="7">
-        <v>850</v>
+        <v>131328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>437</v>
       </c>
       <c r="N17" s="7">
-        <v>2299</v>
+        <v>281218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>24006</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>21523</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>45529</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,10 +3868,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D19" s="7">
-        <v>25455</v>
+        <v>165607</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>35</v>
@@ -3880,10 +3883,10 @@
         <v>35</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I19" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>35</v>
@@ -3895,10 +3898,10 @@
         <v>35</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>497</v>
       </c>
       <c r="N19" s="7">
-        <v>47828</v>
+        <v>320983</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>35</v>
@@ -3912,157 +3915,157 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="5">
-        <v>994</v>
+        <v>102</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>15776</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>24054</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>39830</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="D21" s="7">
-        <v>15717</v>
+        <v>191873</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H21" s="7">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="I21" s="7">
-        <v>24048</v>
+        <v>186246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="M21" s="7">
-        <v>60</v>
+        <v>502</v>
       </c>
       <c r="N21" s="7">
-        <v>39765</v>
+        <v>378119</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>149890</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>131328</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>281218</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="D23" s="7">
-        <v>165607</v>
+        <v>207649</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>35</v>
@@ -4086,10 +4089,10 @@
         <v>35</v>
       </c>
       <c r="H23" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I23" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>35</v>
@@ -4101,10 +4104,10 @@
         <v>35</v>
       </c>
       <c r="M23" s="7">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="N23" s="7">
-        <v>320983</v>
+        <v>417949</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>35</v>
@@ -4120,155 +4123,155 @@
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>65630</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>77569</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>143198</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>92</v>
+        <v>978</v>
       </c>
       <c r="D25" s="7">
-        <v>65630</v>
+        <v>684852</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="H25" s="7">
-        <v>115</v>
+        <v>909</v>
       </c>
       <c r="I25" s="7">
-        <v>77569</v>
+        <v>632881</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="M25" s="7">
-        <v>207</v>
+        <v>1887</v>
       </c>
       <c r="N25" s="7">
-        <v>143198</v>
+        <v>1317733</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>684852</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>632881</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
-        <v>1887</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>1317733</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,7 +4343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AABA042-60FA-4E44-A286-024F1F4D80DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DD008A-BFF0-4057-A4F5-997F66ADB065}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4357,7 +4360,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4454,155 +4457,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2644</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5495</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>19643</v>
+        <v>22723</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H5" s="7">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>20077</v>
+        <v>19883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N5" s="7">
-        <v>39720</v>
+        <v>42606</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>204716</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H6" s="7">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>187170</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M6" s="7">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>391886</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,10 +4614,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>35</v>
@@ -4626,10 +4629,10 @@
         <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -4641,10 +4644,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
@@ -4660,155 +4663,155 @@
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5">
-        <v>994</v>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>9926</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>11398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>21324</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="D9" s="7">
-        <v>9926</v>
+        <v>112576</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I9" s="7">
-        <v>11398</v>
+        <v>99782</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M9" s="7">
-        <v>31</v>
+        <v>297</v>
       </c>
       <c r="N9" s="7">
-        <v>21324</v>
+        <v>212358</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>112576</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>99782</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>212358</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,152 +4869,152 @@
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5">
-        <v>994</v>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>19643</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>20077</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>39720</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>23771</v>
+        <v>204716</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="I13" s="7">
-        <v>27057</v>
+        <v>187170</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>601</v>
       </c>
       <c r="N13" s="7">
-        <v>50829</v>
+        <v>391886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>181965</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>180363</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>306</v>
+        <v>15</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>362327</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>311</v>
@@ -5023,10 +5026,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>35</v>
@@ -5038,10 +5041,10 @@
         <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I15" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>35</v>
@@ -5053,10 +5056,10 @@
         <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N15" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>35</v>
@@ -5072,155 +5075,155 @@
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>8440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>10462</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>18902</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="D17" s="7">
-        <v>2851</v>
+        <v>158233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="I17" s="7">
-        <v>2644</v>
+        <v>145535</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>475</v>
       </c>
       <c r="N17" s="7">
-        <v>5495</v>
+        <v>303768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>22723</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>322</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>19883</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>325</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>42606</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,10 +5232,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D19" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>35</v>
@@ -5244,10 +5247,10 @@
         <v>35</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I19" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>35</v>
@@ -5259,10 +5262,10 @@
         <v>35</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N19" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>35</v>
@@ -5276,157 +5279,157 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="5">
-        <v>994</v>
+        <v>102</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>23771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>27057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>50829</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="D21" s="7">
-        <v>8440</v>
+        <v>181965</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="I21" s="7">
-        <v>10462</v>
+        <v>180363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>345</v>
       </c>
       <c r="M21" s="7">
-        <v>32</v>
+        <v>498</v>
       </c>
       <c r="N21" s="7">
-        <v>18902</v>
+        <v>362327</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>158233</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>342</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="I22" s="7">
-        <v>145535</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="M22" s="7">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>303768</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>346</v>
+        <v>15</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,10 +5438,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D23" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>35</v>
@@ -5450,10 +5453,10 @@
         <v>35</v>
       </c>
       <c r="H23" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I23" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>35</v>
@@ -5465,10 +5468,10 @@
         <v>35</v>
       </c>
       <c r="M23" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N23" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>35</v>
@@ -5484,155 +5487,155 @@
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>64630</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>71639</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>355</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>136269</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>357</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>94</v>
+        <v>971</v>
       </c>
       <c r="D25" s="7">
-        <v>64630</v>
+        <v>680214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H25" s="7">
-        <v>113</v>
+        <v>948</v>
       </c>
       <c r="I25" s="7">
-        <v>71639</v>
+        <v>632732</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M25" s="7">
-        <v>207</v>
+        <v>1919</v>
       </c>
       <c r="N25" s="7">
-        <v>136269</v>
+        <v>1312946</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>971</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>680214</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>358</v>
+        <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>359</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
-        <v>948</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>632732</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>15</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
-        <v>1919</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>1312946</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>15</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,7 +5707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84333A2B-0243-412E-BFC3-5A8F61EA9CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C43CB-5A63-48E3-B097-AF33ED52D5C2}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5721,7 +5724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5818,59 +5821,59 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>250186</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="H4" s="7">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>192352</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="7">
-        <v>623</v>
-      </c>
-      <c r="N4" s="7">
-        <v>442538</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -5879,13 +5882,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5894,13 +5897,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5909,64 +5912,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7">
+        <v>28</v>
+      </c>
+      <c r="I6" s="7">
+        <v>16787</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="7">
+        <v>47</v>
+      </c>
+      <c r="N6" s="7">
+        <v>29485</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>372</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,10 +5978,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>35</v>
@@ -5990,10 +5993,10 @@
         <v>35</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -6005,10 +6008,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
@@ -6024,59 +6027,59 @@
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5">
-        <v>994</v>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>114596</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="7">
-        <v>168</v>
-      </c>
-      <c r="I8" s="7">
-        <v>103895</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M8" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>218490</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -6085,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6100,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6115,64 +6118,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>114596</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="7">
+        <v>168</v>
+      </c>
+      <c r="I10" s="7">
+        <v>103895</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="7">
+        <v>320</v>
+      </c>
+      <c r="N10" s="7">
+        <v>218490</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,59 +6233,59 @@
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="5">
-        <v>994</v>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="7">
-        <v>240</v>
-      </c>
-      <c r="I12" s="7">
-        <v>171943</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="7">
-        <v>478</v>
-      </c>
-      <c r="N12" s="7">
-        <v>346958</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -6291,13 +6294,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6306,13 +6309,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6321,64 +6324,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>250186</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7">
+        <v>280</v>
+      </c>
+      <c r="I14" s="7">
+        <v>192352</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>35</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>442538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,10 +6390,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D15" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>35</v>
@@ -6402,10 +6405,10 @@
         <v>35</v>
       </c>
       <c r="H15" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I15" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>35</v>
@@ -6417,10 +6420,10 @@
         <v>35</v>
       </c>
       <c r="M15" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N15" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>35</v>
@@ -6436,59 +6439,59 @@
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>12698</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>16787</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>29485</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -6497,13 +6500,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6512,13 +6515,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6527,64 +6530,64 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>173208</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>384</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>168735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>385</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>341943</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>386</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,10 +6596,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D19" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>35</v>
@@ -6608,10 +6611,10 @@
         <v>35</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="I19" s="7">
-        <v>16787</v>
+        <v>168735</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>35</v>
@@ -6623,10 +6626,10 @@
         <v>35</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="N19" s="7">
-        <v>29485</v>
+        <v>341943</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>35</v>
@@ -6640,61 +6643,61 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="5">
-        <v>994</v>
+        <v>102</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>173208</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>168735</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>386</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>341943</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -6703,94 +6706,94 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>175016</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>388</v>
+        <v>35</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>171943</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>389</v>
+        <v>35</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>346958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D23" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>35</v>
@@ -6814,10 +6817,10 @@
         <v>35</v>
       </c>
       <c r="H23" s="7">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="I23" s="7">
-        <v>168735</v>
+        <v>171943</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>35</v>
@@ -6829,10 +6832,10 @@
         <v>35</v>
       </c>
       <c r="M23" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N23" s="7">
-        <v>341943</v>
+        <v>346958</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>35</v>
@@ -6848,59 +6851,59 @@
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>994</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>725704</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>390</v>
+        <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
       <c r="H24" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>653712</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>390</v>
+        <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
       <c r="M24" s="7">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>1379416</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>391</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>35</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -6909,94 +6912,94 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>725704</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>393</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>392</v>
+        <v>35</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>653712</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>393</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>392</v>
+        <v>35</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1379416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>393</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP25-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{163D994C-C78B-4A4C-ADA3-4FE06A7A49BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{432B5730-6C07-4818-BDEA-32FA60FEB301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D97DEF9A-D94B-4547-9718-60F14716176C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0EA6A9A0-92CD-42F3-9DCA-1DCA68A9A1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="402">
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -71,79 +71,79 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>994.0</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>17,11%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>994.0</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,835 +152,886 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
     <t>10,54%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>15,94%</t>
+    <t>15,67%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>8,13%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>2,86%</t>
+    <t>2,8%</t>
   </si>
   <si>
     <t>8,51%</t>
@@ -989,172 +1040,151 @@
     <t>6,71%</t>
   </si>
   <si>
-    <t>4,08%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -1163,13 +1193,13 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -1178,13 +1208,13 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>0,85%</t>
@@ -1193,13 +1223,10 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>0,8%</t>
@@ -1208,22 +1235,16 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
     <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1255,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1330,39 +1351,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1414,7 +1435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1525,13 +1546,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1540,6 +1554,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1604,19 +1625,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2ED6D8-3DCE-4C35-8D47-7D92409DE305}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B310D8C4-B923-4EA0-A89F-F227888BBC74}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1733,10 +1774,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3196</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1748,40 +1789,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3910</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>29</v>
@@ -1790,13 +1831,13 @@
         <v>22248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -1805,13 +1846,13 @@
         <v>22010</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -1820,61 +1861,61 @@
         <v>44258</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3196</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>714</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>5</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3910</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>34</v>
@@ -1939,55 +1980,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>13457</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="H8" s="7">
-        <v>18</v>
-      </c>
-      <c r="I8" s="7">
-        <v>11782</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="7">
-        <v>38</v>
-      </c>
-      <c r="N8" s="7">
-        <v>25238</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>173</v>
@@ -1996,13 +2037,13 @@
         <v>114176</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>155</v>
@@ -2011,13 +2052,13 @@
         <v>103487</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -2026,61 +2067,61 @@
         <v>217664</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>13457</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11782</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="7">
+        <v>38</v>
+      </c>
+      <c r="N10" s="7">
+        <v>25238</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>57</v>
@@ -2145,55 +2186,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>28050</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H12" s="7">
-        <v>36</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22670</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="7">
-        <v>78</v>
-      </c>
-      <c r="N12" s="7">
-        <v>50720</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>280</v>
@@ -2202,13 +2243,13 @@
         <v>184092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>276</v>
@@ -2217,13 +2258,13 @@
         <v>172493</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>556</v>
@@ -2232,61 +2273,61 @@
         <v>356585</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>28050</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
+        <v>36</v>
+      </c>
+      <c r="I14" s="7">
+        <v>22670</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="7">
+        <v>78</v>
+      </c>
+      <c r="N14" s="7">
+        <v>50720</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>79</v>
@@ -2351,55 +2392,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>17544</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="H16" s="7">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7">
-        <v>15511</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="7">
-        <v>54</v>
-      </c>
-      <c r="N16" s="7">
-        <v>33055</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>204</v>
@@ -2408,13 +2449,13 @@
         <v>132113</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -2423,13 +2464,13 @@
         <v>122306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -2438,61 +2479,61 @@
         <v>254419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>17544</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="7">
+        <v>26</v>
+      </c>
+      <c r="I18" s="7">
+        <v>15511</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="7">
+        <v>54</v>
+      </c>
+      <c r="N18" s="7">
+        <v>33055</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>101</v>
@@ -2557,55 +2598,55 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>27825</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>20</v>
-      </c>
-      <c r="I20" s="7">
-        <v>15149</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>61</v>
-      </c>
-      <c r="N20" s="7">
-        <v>42974</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>265</v>
@@ -2614,13 +2655,13 @@
         <v>179999</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>253</v>
@@ -2629,13 +2670,13 @@
         <v>193455</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>518</v>
@@ -2644,61 +2685,61 @@
         <v>373454</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>27825</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7">
+        <v>15149</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" s="7">
+        <v>61</v>
+      </c>
+      <c r="N22" s="7">
+        <v>42974</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>123</v>
@@ -2763,55 +2804,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>90071</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="H24" s="7">
-        <v>101</v>
-      </c>
-      <c r="I24" s="7">
-        <v>65827</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M24" s="7">
-        <v>236</v>
-      </c>
-      <c r="N24" s="7">
-        <v>155898</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>951</v>
@@ -2820,13 +2861,13 @@
         <v>632629</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>915</v>
@@ -2835,13 +2876,13 @@
         <v>613750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>1866</v>
@@ -2850,61 +2891,61 @@
         <v>1246379</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>90071</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="7">
+        <v>101</v>
+      </c>
+      <c r="I26" s="7">
+        <v>65827</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" s="7">
+        <v>236</v>
+      </c>
+      <c r="N26" s="7">
+        <v>155898</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>144</v>
@@ -2959,6 +3000,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2979,8 +3025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC32933-1C86-4E0D-9F66-55438AF7E7D8}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D32A8-1CAF-46C0-BE94-DA7081A4013B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2996,7 +3042,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3097,55 +3143,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1449</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="M4" s="7">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2299</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>26</v>
@@ -3154,13 +3200,13 @@
         <v>24006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -3169,13 +3215,13 @@
         <v>21523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -3184,64 +3230,64 @@
         <v>45529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1449</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>850</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2299</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,55 +3349,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>11485</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="7">
-        <v>13</v>
-      </c>
-      <c r="I8" s="7">
-        <v>9193</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M8" s="7">
-        <v>29</v>
-      </c>
-      <c r="N8" s="7">
-        <v>20678</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>167</v>
@@ -3360,13 +3406,13 @@
         <v>117744</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H9" s="7">
         <v>149</v>
@@ -3375,13 +3421,13 @@
         <v>106850</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M9" s="7">
         <v>316</v>
@@ -3390,64 +3436,64 @@
         <v>224594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>11485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9193</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>29</v>
+      </c>
+      <c r="N10" s="7">
+        <v>20678</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,55 +3555,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>21203</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H12" s="7">
-        <v>31</v>
-      </c>
-      <c r="I12" s="7">
-        <v>19423</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="M12" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>40626</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>293</v>
@@ -3566,13 +3612,13 @@
         <v>201338</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>288</v>
@@ -3581,13 +3627,13 @@
         <v>186935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>581</v>
@@ -3596,64 +3642,64 @@
         <v>388273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>21203</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="7">
         <v>31</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>19423</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M14" s="7">
+        <v>60</v>
+      </c>
+      <c r="N14" s="7">
+        <v>40626</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,55 +3761,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>15717</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>24048</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M16" s="7">
-        <v>60</v>
-      </c>
-      <c r="N16" s="7">
-        <v>39765</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>232</v>
@@ -3772,13 +3818,13 @@
         <v>149890</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -3787,13 +3833,13 @@
         <v>131328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>437</v>
@@ -3802,64 +3848,64 @@
         <v>281218</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>15717</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="7">
+        <v>37</v>
+      </c>
+      <c r="I18" s="7">
+        <v>24048</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>60</v>
+      </c>
+      <c r="N18" s="7">
+        <v>39765</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,55 +3967,55 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>15776</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>33</v>
-      </c>
-      <c r="I20" s="7">
-        <v>24054</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>55</v>
-      </c>
-      <c r="N20" s="7">
-        <v>39830</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>260</v>
@@ -3978,13 +4024,13 @@
         <v>191873</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H21" s="7">
         <v>242</v>
@@ -3993,13 +4039,13 @@
         <v>186246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M21" s="7">
         <v>502</v>
@@ -4008,64 +4054,64 @@
         <v>378119</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>15776</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="7">
+        <v>33</v>
+      </c>
+      <c r="I22" s="7">
+        <v>24054</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>39830</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,55 +4173,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>65630</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>77569</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>143198</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>248</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>978</v>
@@ -4184,13 +4230,13 @@
         <v>684852</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H25" s="7">
         <v>909</v>
@@ -4199,13 +4245,13 @@
         <v>632881</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>1887</v>
@@ -4214,64 +4260,64 @@
         <v>1317733</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>65630</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>77569</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>143198</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,6 +4369,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4343,8 +4394,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DD008A-BFF0-4057-A4F5-997F66ADB065}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A67C43-82C2-4847-A8B2-1412A0D1D5BB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4360,7 +4411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4461,55 +4512,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2851</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2644</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>261</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>5495</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>27</v>
@@ -4518,13 +4569,13 @@
         <v>22723</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4533,13 +4584,13 @@
         <v>19883</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>48</v>
@@ -4548,64 +4599,64 @@
         <v>42606</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>2851</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>273</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2644</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>5495</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,55 +4718,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>9926</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>11398</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>21324</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>152</v>
@@ -4724,13 +4775,13 @@
         <v>112576</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H9" s="7">
         <v>145</v>
@@ -4739,13 +4790,13 @@
         <v>99782</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M9" s="7">
         <v>297</v>
@@ -4754,64 +4805,64 @@
         <v>212358</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>9926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="7">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11398</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M10" s="7">
         <v>31</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>21324</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>297</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,55 +4924,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>19643</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>20077</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="M12" s="7">
-        <v>65</v>
-      </c>
-      <c r="N12" s="7">
-        <v>39720</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>302</v>
@@ -4930,13 +4981,13 @@
         <v>204716</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H13" s="7">
         <v>299</v>
@@ -4945,13 +4996,13 @@
         <v>187170</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>601</v>
@@ -4960,64 +5011,64 @@
         <v>391886</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7">
         <v>30</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>19643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>20077</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>39720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,46 +5130,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>8440</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>10462</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c r="M16" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>18902</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>319</v>
@@ -5127,7 +5178,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>235</v>
@@ -5154,10 +5205,10 @@
         <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>475</v>
@@ -5166,64 +5217,64 @@
         <v>303768</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>8440</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>10462</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>333</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>18902</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>336</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,55 +5336,55 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>23771</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>27057</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>50829</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>255</v>
@@ -5342,13 +5393,13 @@
         <v>181965</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -5357,13 +5408,13 @@
         <v>180363</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M21" s="7">
         <v>498</v>
@@ -5372,64 +5423,64 @@
         <v>362327</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>23771</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>349</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>27057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>50829</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>31</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,55 +5542,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>64630</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>350</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>351</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>352</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>71639</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>355</v>
+        <v>124</v>
       </c>
       <c r="M24" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>136269</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>358</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>971</v>
@@ -5548,13 +5599,13 @@
         <v>680214</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H25" s="7">
         <v>948</v>
@@ -5563,13 +5614,13 @@
         <v>632732</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M25" s="7">
         <v>1919</v>
@@ -5578,64 +5629,64 @@
         <v>1312946</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>64630</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>367</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>368</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>71639</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>15</v>
+        <v>369</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>370</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>371</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>136269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>15</v>
+        <v>372</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>31</v>
+        <v>373</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,6 +5738,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5707,8 +5763,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C43CB-5A63-48E3-B097-AF33ED52D5C2}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9193BA9D-526A-4EB1-9AF6-719D24CC816A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5724,7 +5780,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5825,55 +5881,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>29485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>369</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -5882,13 +5938,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5897,13 +5953,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5912,64 +5968,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>371</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,55 +6087,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>114596</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>379</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>372</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>103895</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>218490</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>381</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -6088,13 +6144,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6103,13 +6159,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6118,64 +6174,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>114596</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>382</v>
       </c>
       <c r="H10" s="7">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>103895</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>218490</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,55 +6293,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>384</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>31</v>
+        <v>386</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>378</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -6294,13 +6350,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6309,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6324,64 +6380,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>250186</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>192352</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
-        <v>623</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>442538</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,55 +6499,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>173208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>35</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>168735</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>341943</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>31</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -6500,13 +6556,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6515,13 +6571,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6530,64 +6586,64 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>35</v>
+        <v>392</v>
       </c>
       <c r="H18" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>168735</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>385</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>35</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>341943</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,55 +6705,55 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>175016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>35</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>171943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>35</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>346958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>395</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -6706,13 +6762,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6721,13 +6777,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6736,64 +6792,64 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>175016</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>35</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>171943</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>389</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>35</v>
+        <v>396</v>
       </c>
       <c r="M22" s="7">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>346958</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>390</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>35</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,55 +6911,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>725704</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>391</v>
+        <v>35</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>653712</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>391</v>
+        <v>35</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1379416</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>31</v>
+        <v>399</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>392</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -6912,13 +6968,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6927,13 +6983,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6942,64 +6998,64 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>725704</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>393</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="H26" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>653712</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>393</v>
+        <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>1379416</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>394</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,6 +7107,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{432B5730-6C07-4818-BDEA-32FA60FEB301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{141C8231-0D84-4C63-AFDE-013E3F192F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0EA6A9A0-92CD-42F3-9DCA-1DCA68A9A1BE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7388933-EF4E-4AA7-AA6C-E0088998D03D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="396">
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -95,7 +95,7 @@
     <t>87,44%</t>
   </si>
   <si>
-    <t>68,42%</t>
+    <t>69,07%</t>
   </si>
   <si>
     <t>96,74%</t>
@@ -104,7 +104,7 @@
     <t>96,86%</t>
   </si>
   <si>
-    <t>82,89%</t>
+    <t>82,51%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,10 +113,10 @@
     <t>91,88%</t>
   </si>
   <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -128,28 +128,28 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>31,58%</t>
+    <t>30,93%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>17,11%</t>
+    <t>17,49%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -164,778 +164,778 @@
     <t>89,46%</t>
   </si>
   <si>
-    <t>84,33%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>12,49%</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -947,49 +947,49 @@
     <t>91,24%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -1004,166 +1004,148 @@
     <t>94,94%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>94,14%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
     <t>88,45%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>82,29%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
+    <t>17,71%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>91,32%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1656,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B310D8C4-B923-4EA0-A89F-F227888BBC74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F934F66-9F02-496C-95C3-98F710E0F055}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3025,7 +3007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D32A8-1CAF-46C0-BE94-DA7081A4013B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB636919-F214-4EB1-ABF1-B5395D291A40}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,7 +3591,7 @@
         <v>293</v>
       </c>
       <c r="D13" s="7">
-        <v>201338</v>
+        <v>201339</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>186</v>
@@ -3639,7 +3621,7 @@
         <v>581</v>
       </c>
       <c r="N13" s="7">
-        <v>388273</v>
+        <v>388274</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>192</v>
@@ -3711,7 +3693,7 @@
         <v>322</v>
       </c>
       <c r="D15" s="7">
-        <v>222541</v>
+        <v>222542</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>35</v>
@@ -3741,7 +3723,7 @@
         <v>641</v>
       </c>
       <c r="N15" s="7">
-        <v>428899</v>
+        <v>428900</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>35</v>
@@ -4060,7 +4042,7 @@
         <v>233</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4057,13 @@
         <v>15776</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -4090,13 +4072,13 @@
         <v>24054</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -4108,10 +4090,10 @@
         <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4212,13 @@
         <v>684852</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H25" s="7">
         <v>909</v>
@@ -4245,13 +4227,13 @@
         <v>632881</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>1887</v>
@@ -4260,13 +4242,13 @@
         <v>1317733</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4263,13 @@
         <v>65630</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H26" s="7">
         <v>115</v>
@@ -4296,13 +4278,13 @@
         <v>77569</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M26" s="7">
         <v>207</v>
@@ -4311,13 +4293,13 @@
         <v>143198</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,7 +4376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A67C43-82C2-4847-A8B2-1412A0D1D5BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C6EDDC-18F5-47A0-8E68-1409990ACCE4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4599,13 +4581,13 @@
         <v>42606</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4602,13 @@
         <v>2851</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4635,13 +4617,13 @@
         <v>2644</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4650,13 +4632,13 @@
         <v>5495</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,37 +4712,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4757,13 @@
         <v>112576</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H9" s="7">
         <v>145</v>
@@ -4790,13 +4772,13 @@
         <v>99782</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M9" s="7">
         <v>297</v>
@@ -4805,13 +4787,13 @@
         <v>212358</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4808,7 @@
         <v>9926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>291</v>
@@ -4936,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5220,10 +5202,10 @@
         <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5220,13 @@
         <v>8440</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -5253,13 +5235,13 @@
         <v>10462</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -5268,13 +5250,13 @@
         <v>18902</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>337</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,7 +5330,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5393,13 +5375,13 @@
         <v>181965</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -5408,13 +5390,13 @@
         <v>180363</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>344</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>498</v>
@@ -5423,13 +5405,13 @@
         <v>362327</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5426,13 @@
         <v>23771</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -5459,13 +5441,13 @@
         <v>27057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -5474,13 +5456,13 @@
         <v>50829</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5581,13 @@
         <v>680214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H25" s="7">
         <v>948</v>
@@ -5614,13 +5596,13 @@
         <v>632732</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M25" s="7">
         <v>1919</v>
@@ -5629,13 +5611,13 @@
         <v>1312946</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5632,13 @@
         <v>64630</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H26" s="7">
         <v>113</v>
@@ -5665,13 +5647,13 @@
         <v>71639</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M26" s="7">
         <v>207</v>
@@ -5680,13 +5662,13 @@
         <v>136269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,7 +5745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9193BA9D-526A-4EB1-9AF6-719D24CC816A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2833F37C-A884-4E36-9092-7BB177574765}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5780,7 +5762,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5905,7 +5887,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -5920,7 +5902,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -5974,7 +5956,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,7 +6007,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,7 +6078,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>35</v>
@@ -6111,7 +6093,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>35</v>
@@ -6126,7 +6108,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>35</v>
@@ -6150,7 +6132,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6165,7 +6147,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6201,7 +6183,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6216,7 +6198,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6302,7 +6284,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>35</v>
@@ -6317,7 +6299,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>35</v>
@@ -6332,7 +6314,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>35</v>
@@ -6356,7 +6338,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6386,7 +6368,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,7 +6389,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6437,7 +6419,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,7 +6490,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>35</v>
@@ -6523,7 +6505,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>35</v>
@@ -6538,7 +6520,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>35</v>
@@ -6562,7 +6544,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6577,7 +6559,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6613,7 +6595,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6628,7 +6610,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6714,7 +6696,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -6729,7 +6711,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>35</v>
@@ -6744,7 +6726,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>35</v>
@@ -6768,7 +6750,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6783,7 +6765,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6798,7 +6780,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6834,7 +6816,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6849,7 +6831,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,7 +6902,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>35</v>
@@ -6935,7 +6917,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>35</v>
@@ -6950,7 +6932,7 @@
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>35</v>
@@ -6974,7 +6956,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6989,7 +6971,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7004,7 +6986,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,7 +7007,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7040,7 +7022,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7055,7 +7037,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP25-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{141C8231-0D84-4C63-AFDE-013E3F192F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8677E341-21B4-499A-A487-39425BC23EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7388933-EF4E-4AA7-AA6C-E0088998D03D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1A1A6F4A-92C2-4567-97D7-1EE72DB13577}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="338">
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -80,1107 +80,936 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
     <t>99,69%</t>
   </si>
   <si>
@@ -1190,16 +1019,13 @@
     <t>0,31%</t>
   </si>
   <si>
+    <t>99,16%</t>
+  </si>
+  <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
     <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -1638,8 +1464,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F934F66-9F02-496C-95C3-98F710E0F055}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB4DA00-8F1B-47A1-BD21-0DC037E1F9E0}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1807,10 +1633,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="D5" s="7">
-        <v>22248</v>
+        <v>125497</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1822,10 +1648,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>22010</v>
+        <v>136424</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1837,10 +1663,10 @@
         <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>57</v>
+        <v>385</v>
       </c>
       <c r="N5" s="7">
-        <v>44258</v>
+        <v>261921</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -1858,10 +1684,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>3196</v>
+        <v>12496</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1873,34 +1699,34 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>714</v>
+        <v>16653</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>3910</v>
+        <v>29149</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,54 +1735,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D7" s="7">
-        <v>25444</v>
+        <v>137993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I7" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="N7" s="7">
-        <v>48168</v>
+        <v>291070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1974,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1989,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2004,7 +1830,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,49 +1839,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>114176</v>
+        <v>172493</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="I9" s="7">
-        <v>103487</v>
+        <v>184092</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>556</v>
       </c>
       <c r="N9" s="7">
-        <v>217664</v>
+        <v>356585</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,49 +1890,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>13457</v>
+        <v>22670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>11782</v>
+        <v>28050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="N10" s="7">
-        <v>25238</v>
+        <v>50720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,54 +1941,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D11" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>173</v>
+        <v>322</v>
       </c>
       <c r="I11" s="7">
-        <v>115269</v>
+        <v>212142</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>366</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>242902</v>
+        <v>407305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2180,7 +2006,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2195,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2210,7 +2036,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,49 +2045,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="D13" s="7">
-        <v>184092</v>
+        <v>122306</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="I13" s="7">
-        <v>172493</v>
+        <v>132113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>556</v>
+        <v>407</v>
       </c>
       <c r="N13" s="7">
-        <v>356585</v>
+        <v>254419</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,49 +2096,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>28050</v>
+        <v>15511</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>22670</v>
+        <v>17544</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
+        <v>54</v>
+      </c>
+      <c r="N14" s="7">
+        <v>33055</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="7">
-        <v>50720</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,54 +2147,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D15" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2386,7 +2212,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2401,7 +2227,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2416,7 +2242,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,49 +2251,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="D17" s="7">
-        <v>132113</v>
+        <v>193455</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="I17" s="7">
-        <v>122306</v>
+        <v>179999</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>407</v>
+        <v>518</v>
       </c>
       <c r="N17" s="7">
-        <v>254419</v>
+        <v>373454</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,49 +2302,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>17544</v>
+        <v>15149</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I18" s="7">
-        <v>15511</v>
+        <v>27825</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N18" s="7">
-        <v>33055</v>
+        <v>42974</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,54 +2353,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="D19" s="7">
-        <v>149657</v>
+        <v>208604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I19" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>461</v>
+        <v>579</v>
       </c>
       <c r="N19" s="7">
-        <v>287474</v>
+        <v>416428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2631,10 +2457,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>265</v>
+        <v>915</v>
       </c>
       <c r="D21" s="7">
-        <v>179999</v>
+        <v>613750</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>106</v>
@@ -2646,10 +2472,10 @@
         <v>108</v>
       </c>
       <c r="H21" s="7">
-        <v>253</v>
+        <v>951</v>
       </c>
       <c r="I21" s="7">
-        <v>193455</v>
+        <v>632629</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>109</v>
@@ -2661,10 +2487,10 @@
         <v>111</v>
       </c>
       <c r="M21" s="7">
-        <v>518</v>
+        <v>1866</v>
       </c>
       <c r="N21" s="7">
-        <v>373454</v>
+        <v>1246379</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>112</v>
@@ -2682,10 +2508,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>27825</v>
+        <v>65827</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>115</v>
@@ -2697,10 +2523,10 @@
         <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I22" s="7">
-        <v>15149</v>
+        <v>90071</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>118</v>
@@ -2712,10 +2538,10 @@
         <v>120</v>
       </c>
       <c r="M22" s="7">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="N22" s="7">
-        <v>42974</v>
+        <v>155898</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>121</v>
@@ -2733,268 +2559,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>306</v>
+        <v>1016</v>
       </c>
       <c r="D23" s="7">
-        <v>207824</v>
+        <v>679577</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>273</v>
+        <v>1086</v>
       </c>
       <c r="I23" s="7">
-        <v>208604</v>
+        <v>722700</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>579</v>
+        <v>2102</v>
       </c>
       <c r="N23" s="7">
-        <v>416428</v>
+        <v>1402277</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="A24" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>951</v>
-      </c>
-      <c r="D25" s="7">
-        <v>632629</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="7">
-        <v>915</v>
-      </c>
-      <c r="I25" s="7">
-        <v>613750</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1866</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1246379</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>135</v>
-      </c>
-      <c r="D26" s="7">
-        <v>90071</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="7">
-        <v>101</v>
-      </c>
-      <c r="I26" s="7">
-        <v>65827</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M26" s="7">
-        <v>236</v>
-      </c>
-      <c r="N26" s="7">
-        <v>155898</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D27" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I27" s="7">
-        <v>679577</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2102</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1402277</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3007,8 +2626,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB636919-F214-4EB1-ABF1-B5395D291A40}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B8B6B9-21C4-49C5-AA1F-8DBEA2DAD158}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3024,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3137,7 +2756,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3152,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3167,7 +2786,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,49 +2795,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="D5" s="7">
-        <v>24006</v>
+        <v>128373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="I5" s="7">
-        <v>21523</v>
+        <v>141750</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
-        <v>51</v>
+        <v>367</v>
       </c>
       <c r="N5" s="7">
-        <v>45529</v>
+        <v>270122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,49 +2846,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>1449</v>
+        <v>10043</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7">
-        <v>850</v>
+        <v>12934</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="N6" s="7">
-        <v>2299</v>
+        <v>22978</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,54 +2897,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="D7" s="7">
-        <v>25455</v>
+        <v>138416</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>399</v>
       </c>
       <c r="N7" s="7">
-        <v>47828</v>
+        <v>293100</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3343,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3358,7 +2977,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3373,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,49 +3001,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="D9" s="7">
-        <v>117744</v>
+        <v>186935</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
+        <v>293</v>
+      </c>
+      <c r="I9" s="7">
+        <v>201338</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="7">
-        <v>106850</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="M9" s="7">
-        <v>316</v>
+        <v>581</v>
       </c>
       <c r="N9" s="7">
-        <v>224594</v>
+        <v>388273</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,49 +3052,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>11485</v>
+        <v>19423</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>9193</v>
+        <v>21203</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N10" s="7">
-        <v>20678</v>
+        <v>40626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,54 +3103,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>129229</v>
+        <v>206358</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="I11" s="7">
-        <v>116043</v>
+        <v>222541</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>345</v>
+        <v>641</v>
       </c>
       <c r="N11" s="7">
-        <v>245272</v>
+        <v>428899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3549,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3564,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3579,7 +3198,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,49 +3207,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="D13" s="7">
-        <v>201339</v>
+        <v>131328</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="I13" s="7">
-        <v>186935</v>
+        <v>149890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
-        <v>581</v>
+        <v>437</v>
       </c>
       <c r="N13" s="7">
-        <v>388274</v>
+        <v>281218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,49 +3258,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>21203</v>
+        <v>24048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I14" s="7">
-        <v>19423</v>
+        <v>15717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
       </c>
       <c r="N14" s="7">
-        <v>40626</v>
+        <v>39765</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,54 +3309,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="D15" s="7">
-        <v>222542</v>
+        <v>155376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="I15" s="7">
-        <v>206358</v>
+        <v>165607</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>641</v>
+        <v>497</v>
       </c>
       <c r="N15" s="7">
-        <v>428900</v>
+        <v>320983</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3755,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3770,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3785,7 +3404,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,49 +3413,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D17" s="7">
-        <v>149890</v>
+        <v>186246</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="I17" s="7">
-        <v>131328</v>
+        <v>191873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="N17" s="7">
-        <v>281218</v>
+        <v>378119</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,49 +3464,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>15717</v>
+        <v>24054</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>24048</v>
+        <v>15776</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="M18" s="7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>39765</v>
+        <v>39830</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,54 +3515,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D19" s="7">
-        <v>165607</v>
+        <v>210300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="I19" s="7">
-        <v>155376</v>
+        <v>207649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="N19" s="7">
-        <v>320983</v>
+        <v>417949</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3961,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3991,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,49 +3619,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>260</v>
+        <v>909</v>
       </c>
       <c r="D21" s="7">
-        <v>191873</v>
+        <v>632881</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="H21" s="7">
-        <v>242</v>
+        <v>978</v>
       </c>
       <c r="I21" s="7">
-        <v>186246</v>
+        <v>684852</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="M21" s="7">
-        <v>502</v>
+        <v>1887</v>
       </c>
       <c r="N21" s="7">
-        <v>378119</v>
+        <v>1317733</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,49 +3670,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="D22" s="7">
-        <v>15776</v>
+        <v>77569</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I22" s="7">
-        <v>24054</v>
+        <v>65630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M22" s="7">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="N22" s="7">
-        <v>39830</v>
+        <v>143198</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,268 +3721,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>282</v>
+        <v>1024</v>
       </c>
       <c r="D23" s="7">
-        <v>207649</v>
+        <v>710450</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>275</v>
+        <v>1070</v>
       </c>
       <c r="I23" s="7">
-        <v>210300</v>
+        <v>750482</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>557</v>
+        <v>2094</v>
       </c>
       <c r="N23" s="7">
-        <v>417949</v>
+        <v>1460931</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="A24" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>978</v>
-      </c>
-      <c r="D25" s="7">
-        <v>684852</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H25" s="7">
-        <v>909</v>
-      </c>
-      <c r="I25" s="7">
-        <v>632881</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1887</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1317733</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>92</v>
-      </c>
-      <c r="D26" s="7">
-        <v>65630</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H26" s="7">
-        <v>115</v>
-      </c>
-      <c r="I26" s="7">
-        <v>77569</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M26" s="7">
-        <v>207</v>
-      </c>
-      <c r="N26" s="7">
-        <v>143198</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1070</v>
-      </c>
-      <c r="D27" s="7">
-        <v>750482</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I27" s="7">
-        <v>710450</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2094</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1460931</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4376,8 +3788,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C6EDDC-18F5-47A0-8E68-1409990ACCE4}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AA77E3-C9E2-440A-B134-EDED4593939B}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4393,7 +3805,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4506,7 +3918,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4521,7 +3933,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4536,7 +3948,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,49 +3957,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="D5" s="7">
-        <v>22723</v>
+        <v>119665</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="I5" s="7">
-        <v>19883</v>
+        <v>135299</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
-        <v>48</v>
+        <v>345</v>
       </c>
       <c r="N5" s="7">
-        <v>42606</v>
+        <v>254964</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,49 +4008,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>2851</v>
+        <v>14042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>2644</v>
+        <v>12777</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N6" s="7">
-        <v>5495</v>
+        <v>26819</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,54 +4059,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I7" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N7" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4712,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4727,7 +4139,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4742,7 +4154,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,49 +4163,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="D9" s="7">
-        <v>112576</v>
+        <v>187170</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>281</v>
+        <v>106</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="H9" s="7">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="I9" s="7">
-        <v>99782</v>
+        <v>204716</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
-        <v>297</v>
+        <v>601</v>
       </c>
       <c r="N9" s="7">
-        <v>212358</v>
+        <v>391886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,49 +4214,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>9926</v>
+        <v>20077</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>11398</v>
+        <v>19643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>21324</v>
+        <v>39720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,54 +4265,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4918,7 +4330,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4933,7 +4345,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4948,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,49 +4369,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="D13" s="7">
-        <v>204716</v>
+        <v>145535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="I13" s="7">
-        <v>187170</v>
+        <v>158233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="N13" s="7">
-        <v>391886</v>
+        <v>303768</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,49 +4420,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>19643</v>
+        <v>10462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>20077</v>
+        <v>8440</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="N14" s="7">
-        <v>39720</v>
+        <v>18902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,54 +4471,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I15" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5124,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5139,7 +4551,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5154,7 +4566,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,49 +4575,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D17" s="7">
-        <v>158233</v>
+        <v>180363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="I17" s="7">
-        <v>145535</v>
+        <v>181965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="N17" s="7">
-        <v>303768</v>
+        <v>362327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,49 +4626,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7">
-        <v>8440</v>
+        <v>27057</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>10462</v>
+        <v>23771</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="N18" s="7">
-        <v>18902</v>
+        <v>50829</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,54 +4677,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D19" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I19" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N19" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5330,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5345,7 +4757,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5360,7 +4772,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,49 +4781,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>255</v>
+        <v>948</v>
       </c>
       <c r="D21" s="7">
-        <v>181965</v>
+        <v>632732</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="H21" s="7">
-        <v>243</v>
+        <v>971</v>
       </c>
       <c r="I21" s="7">
-        <v>180363</v>
+        <v>680214</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="M21" s="7">
-        <v>498</v>
+        <v>1919</v>
       </c>
       <c r="N21" s="7">
-        <v>362327</v>
+        <v>1312946</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,49 +4832,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D22" s="7">
-        <v>23771</v>
+        <v>71639</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="I22" s="7">
-        <v>27057</v>
+        <v>64630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="M22" s="7">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="N22" s="7">
-        <v>50829</v>
+        <v>136269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,268 +4883,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D23" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I23" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N23" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="A24" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>971</v>
-      </c>
-      <c r="D25" s="7">
-        <v>680214</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H25" s="7">
-        <v>948</v>
-      </c>
-      <c r="I25" s="7">
-        <v>632732</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1919</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1312946</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>94</v>
-      </c>
-      <c r="D26" s="7">
-        <v>64630</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H26" s="7">
-        <v>113</v>
-      </c>
-      <c r="I26" s="7">
-        <v>71639</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="M26" s="7">
-        <v>207</v>
-      </c>
-      <c r="N26" s="7">
-        <v>136269</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D27" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I27" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5745,8 +4950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2833F37C-A884-4E36-9092-7BB177574765}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757984B5-831F-4AAE-9DDF-EB5C490206E7}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5762,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5863,49 +5068,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D4" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N4" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,7 +5131,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5941,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5956,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5992,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6007,7 +5212,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,102 +5221,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I7" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N7" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D8" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I8" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N8" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,7 +5337,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>376</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6147,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6162,7 +5367,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6198,7 +5403,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6213,7 +5418,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,102 +5427,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I11" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N11" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>375687</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,7 +5543,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6353,7 +5558,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6368,7 +5573,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,7 +5594,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6404,7 +5609,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6419,7 +5624,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,102 +5633,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D15" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="N15" s="7">
-        <v>442538</v>
+        <v>375687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D16" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I16" s="7">
-        <v>168735</v>
+        <v>181238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N16" s="7">
-        <v>341943</v>
+        <v>349201</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,7 +5749,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6559,7 +5764,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6574,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,7 +5800,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6610,7 +5815,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6625,7 +5830,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,102 +5839,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D19" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I19" s="7">
-        <v>168735</v>
+        <v>181238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N19" s="7">
-        <v>341943</v>
+        <v>349201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>238</v>
+        <v>943</v>
       </c>
       <c r="D20" s="7">
-        <v>175016</v>
+        <v>666155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I20" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
-        <v>478</v>
+        <v>1920</v>
       </c>
       <c r="N20" s="7">
-        <v>346958</v>
+        <v>1428127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +5955,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6765,7 +5970,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6780,7 +5985,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,7 +6006,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6816,7 +6021,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6831,7 +6036,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,268 +6045,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>238</v>
+        <v>943</v>
       </c>
       <c r="D23" s="7">
-        <v>175016</v>
+        <v>666155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I23" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>478</v>
+        <v>1920</v>
       </c>
       <c r="N23" s="7">
-        <v>346958</v>
+        <v>1428127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>977</v>
-      </c>
-      <c r="D24" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="7">
-        <v>943</v>
-      </c>
-      <c r="I24" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>977</v>
-      </c>
-      <c r="D27" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="7">
-        <v>943</v>
-      </c>
-      <c r="I27" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>145</v>
+      <c r="A24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
